--- a/publication/analyses/outputs/supfigs/gdpt_percent_outliers_by_type.xlsx
+++ b/publication/analyses/outputs/supfigs/gdpt_percent_outliers_by_type.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,128 +458,144 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>errz</t>
+          <t>cmin</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2398</v>
+        <v>202</v>
       </c>
       <c r="C2" t="n">
-        <v>94.59999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="D2" t="n">
-        <v>43.3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>errz_fpb</t>
+          <t>errz</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2006</v>
+        <v>905</v>
       </c>
       <c r="C3" t="n">
-        <v>79.2</v>
+        <v>45.8</v>
       </c>
       <c r="D3" t="n">
-        <v>36.2</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>errz_other</t>
+          <t>errz_fpb</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>392</v>
+        <v>791</v>
       </c>
       <c r="C4" t="n">
-        <v>15.5</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>7.1</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>errxy</t>
+          <t>errz_other</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>238</v>
+        <v>114</v>
       </c>
       <c r="C5" t="n">
-        <v>9.4</v>
+        <v>5.8</v>
       </c>
       <c r="D5" t="n">
-        <v>4.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>num_identified</t>
+          <t>errxy</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5170</v>
+        <v>123</v>
       </c>
       <c r="C6" t="n">
-        <v>204</v>
+        <v>6.2</v>
       </c>
       <c r="D6" t="n">
-        <v>93.3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>total_num_outliers</t>
+          <t>num_identified</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2636</v>
+        <v>3207</v>
       </c>
       <c r="C7" t="n">
-        <v>104</v>
+        <v>162.2</v>
       </c>
       <c r="D7" t="n">
-        <v>47.5</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>num_measured</t>
+          <t>total_num_outliers</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2534</v>
+        <v>1230</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>62.2</v>
       </c>
       <c r="D8" t="n">
-        <v>45.7</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>num_measured</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" t="n">
+        <v>35.7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>true_num</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B10" t="n">
         <v>5544</v>
       </c>
-      <c r="C9" t="n">
-        <v>218.8</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C10" t="n">
+        <v>280.4</v>
+      </c>
+      <c r="D10" t="n">
         <v>100</v>
       </c>
     </row>
